--- a/biology/Médecine/RAF1/RAF1.xlsx
+++ b/biology/Médecine/RAF1/RAF1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">RAF1 est une sérine/thréonine kinase. Son gène, RAF1, est situé sur le chromosome 3 humain. Elle appartient à la famille de protéines RAF .
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RAF1 intervient dans la voie de signalisation MAPK/ERK, où elle se lie à la kinase ERK[4]. 
-Dans la voie hippo, qui joue un rôle dans l'organogenèse, la tumorigenèse ainsi que dans la maturation des spermatozoïdes et la fertilité masculine[4] ;  elle se fixe et inhibe la kinase MST2[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAF1 intervient dans la voie de signalisation MAPK/ERK, où elle se lie à la kinase ERK. 
+Dans la voie hippo, qui joue un rôle dans l'organogenèse, la tumorigenèse ainsi que dans la maturation des spermatozoïdes et la fertilité masculine ;  elle se fixe et inhibe la kinase MST2.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs mutations du gène ont été décrites, en rapport avec un syndrome de Noonan[6] particulier par la survenue d'une cardiomyopathie hypertrophique parfois grave[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs mutations du gène ont été décrites, en rapport avec un syndrome de Noonan particulier par la survenue d'une cardiomyopathie hypertrophique parfois grave.
 </t>
         </is>
       </c>
